--- a/ClientExcel/Game/Music.xlsx
+++ b/ClientExcel/Game/Music.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Music" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>#</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>AssetName</t>
+  </si>
+  <si>
+    <t>AssetId</t>
   </si>
   <si>
     <t>Int32</t>
@@ -55,6 +58,9 @@
   <si>
     <t>资源名称</t>
   </si>
+  <si>
+    <t>资源编号</t>
+  </si>
 </sst>
 </file>
 
@@ -66,13 +72,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -537,139 +549,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,6 +746,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,13 +1013,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="16384" width="16.875" style="1" customWidth="1"/>
   </cols>
@@ -1010,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,30 +1042,39 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ClientExcel/Game/Music.xlsx
+++ b/ClientExcel/Game/Music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Music" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -44,6 +44,9 @@
     <t>AssetId</t>
   </si>
   <si>
+    <t>SoundGroupId</t>
+  </si>
+  <si>
     <t>Int32</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>资源编号</t>
+  </si>
+  <si>
+    <t>声音组编号</t>
   </si>
 </sst>
 </file>
@@ -1013,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="16.875" style="1" customWidth="1"/>
   </cols>
@@ -1032,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,36 +1051,45 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ClientExcel/Game/Music.xlsx
+++ b/ClientExcel/Game/Music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Music" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -44,7 +44,10 @@
     <t>AssetId</t>
   </si>
   <si>
-    <t>SoundGroupId</t>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>GroupId</t>
   </si>
   <si>
     <t>Int32</t>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>资源编号</t>
+  </si>
+  <si>
+    <t>声音组名称</t>
   </si>
   <si>
     <t>声音组编号</t>
@@ -1019,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="16384" width="16.875" style="1" customWidth="1"/>
   </cols>
@@ -1038,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,42 +1060,51 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ClientExcel/Game/Music.xlsx
+++ b/ClientExcel/Game/Music.xlsx
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
